--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.343412</v>
+        <v>0.09102366666666667</v>
       </c>
       <c r="H2">
-        <v>1.030236</v>
+        <v>0.273071</v>
       </c>
       <c r="I2">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="J2">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>0.4488761146133333</v>
+        <v>0.03902575991766667</v>
       </c>
       <c r="R2">
-        <v>4.03988503152</v>
+        <v>0.351231839259</v>
       </c>
       <c r="S2">
-        <v>5.082545278583955E-05</v>
+        <v>4.324454613471987E-06</v>
       </c>
       <c r="T2">
-        <v>5.082545278583955E-05</v>
+        <v>4.324454613471987E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.343412</v>
+        <v>0.09102366666666667</v>
       </c>
       <c r="H3">
-        <v>1.030236</v>
+        <v>0.273071</v>
       </c>
       <c r="I3">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="J3">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>27.550652500644</v>
+        <v>7.302486254608999</v>
       </c>
       <c r="R3">
-        <v>247.955872505796</v>
+        <v>65.722376291481</v>
       </c>
       <c r="S3">
-        <v>0.003119511914989652</v>
+        <v>0.0008091904024465633</v>
       </c>
       <c r="T3">
-        <v>0.003119511914989652</v>
+        <v>0.0008091904024465633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.343412</v>
+        <v>0.09102366666666667</v>
       </c>
       <c r="H4">
-        <v>1.030236</v>
+        <v>0.273071</v>
       </c>
       <c r="I4">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="J4">
-        <v>0.004045764821303689</v>
+        <v>0.001049496534254756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>7.731529232437333</v>
+        <v>2.129601326021445</v>
       </c>
       <c r="R4">
-        <v>69.58376309193601</v>
+        <v>19.166411934193</v>
       </c>
       <c r="S4">
-        <v>0.000875427453528198</v>
+        <v>0.0002359816771947209</v>
       </c>
       <c r="T4">
-        <v>0.0008754274535281981</v>
+        <v>0.0002359816771947209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.68760399999999</v>
+        <v>83.68760400000001</v>
       </c>
       <c r="H5">
         <v>251.062812</v>
       </c>
       <c r="I5">
-        <v>0.9859304981840877</v>
+        <v>0.9649122428754918</v>
       </c>
       <c r="J5">
-        <v>0.9859304981840876</v>
+        <v>0.9649122428754917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>109.38862510576</v>
+        <v>35.88047440177201</v>
       </c>
       <c r="R5">
-        <v>984.49762595184</v>
+        <v>322.924269615948</v>
       </c>
       <c r="S5">
-        <v>0.01238588158207062</v>
+        <v>0.003975924706851515</v>
       </c>
       <c r="T5">
-        <v>0.01238588158207062</v>
+        <v>0.003975924706851514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.68760399999999</v>
+        <v>83.68760400000001</v>
       </c>
       <c r="H6">
         <v>251.062812</v>
       </c>
       <c r="I6">
-        <v>0.9859304981840877</v>
+        <v>0.9649122428754918</v>
       </c>
       <c r="J6">
-        <v>0.9859304981840876</v>
+        <v>0.9649122428754917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>6713.941552466148</v>
+        <v>6713.941552466147</v>
       </c>
       <c r="R6">
-        <v>60425.47397219533</v>
+        <v>60425.47397219532</v>
       </c>
       <c r="S6">
-        <v>0.760207790685636</v>
+        <v>0.7439736108251915</v>
       </c>
       <c r="T6">
-        <v>0.7602077906856359</v>
+        <v>0.7439736108251914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.68760399999999</v>
+        <v>83.68760400000001</v>
       </c>
       <c r="H7">
         <v>251.062812</v>
       </c>
       <c r="I7">
-        <v>0.9859304981840877</v>
+        <v>0.9649122428754918</v>
       </c>
       <c r="J7">
-        <v>0.9859304981840876</v>
+        <v>0.9649122428754917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>1884.130888607968</v>
+        <v>1957.965867301444</v>
       </c>
       <c r="R7">
-        <v>16957.17799747171</v>
+        <v>17621.692805713</v>
       </c>
       <c r="S7">
-        <v>0.213336825916381</v>
+        <v>0.2169627073434488</v>
       </c>
       <c r="T7">
-        <v>0.213336825916381</v>
+        <v>0.2169627073434488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8508333333333332</v>
+        <v>2.952165333333333</v>
       </c>
       <c r="H8">
-        <v>2.5525</v>
+        <v>8.856496</v>
       </c>
       <c r="I8">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="J8">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>1.112129922222222</v>
+        <v>1.265720221509333</v>
       </c>
       <c r="R8">
-        <v>10.0091693</v>
+        <v>11.391481993584</v>
       </c>
       <c r="S8">
-        <v>0.0001259245146120456</v>
+        <v>0.0001402547871666936</v>
       </c>
       <c r="T8">
-        <v>0.0001259245146120456</v>
+        <v>0.0001402547871666936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8508333333333332</v>
+        <v>2.952165333333333</v>
       </c>
       <c r="H9">
-        <v>2.5525</v>
+        <v>8.856496</v>
       </c>
       <c r="I9">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="J9">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>68.25915664750001</v>
+        <v>236.841115695184</v>
       </c>
       <c r="R9">
-        <v>614.3324098275</v>
+        <v>2131.570041256656</v>
       </c>
       <c r="S9">
-        <v>0.007728864224324413</v>
+        <v>0.0262444256713689</v>
       </c>
       <c r="T9">
-        <v>0.007728864224324413</v>
+        <v>0.0262444256713689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8508333333333332</v>
+        <v>2.952165333333333</v>
       </c>
       <c r="H10">
-        <v>2.5525</v>
+        <v>8.856496</v>
       </c>
       <c r="I10">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="J10">
-        <v>0.01002373699460868</v>
+        <v>0.03403826059025349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>19.15554141555555</v>
+        <v>69.06923703177422</v>
       </c>
       <c r="R10">
-        <v>172.39987274</v>
+        <v>621.623133285968</v>
       </c>
       <c r="S10">
-        <v>0.00216894825567222</v>
+        <v>0.007653580131717894</v>
       </c>
       <c r="T10">
-        <v>0.00216894825567222</v>
+        <v>0.007653580131717894</v>
       </c>
     </row>
   </sheetData>
